--- a/individual_results/avey/2.xlsx
+++ b/individual_results/avey/2.xlsx
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="O3" t="n">
         <v>0.5</v>
@@ -718,7 +718,7 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
@@ -728,7 +728,7 @@
         <v>0.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O4" t="n">
         <v>0.6666666666666666</v>
@@ -785,7 +785,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
@@ -795,7 +795,7 @@
         <v>0.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O5" t="n">
         <v>0.5555555555555556</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0886669261317229</v>
+        <v>0.7913356909966908</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0.630535055388045</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8861359670101558</v>
+        <v>0.7712467209289329</v>
       </c>
       <c r="O6" t="n">
         <v>0.9095582591723214</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -1143,14 +1143,16 @@
         <v>1</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
@@ -1219,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="O11" t="n">
         <v>0.5</v>
